--- a/data/ch05/사원별_월간_판매현황_new2.xlsx
+++ b/data/ch05/사원별_월간_판매현황_new2.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>물리</t>
+    <t>지사</t>
   </si>
   <si>
-    <t>화학</t>
+    <t>고객 수</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>미국</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,35 +398,48 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>95</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>91</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>92</v>
-      </c>
-      <c r="B3">
-        <v>93</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>98</v>
+      <c r="A4" t="s">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>97</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>100</v>
+      <c r="A5" t="s">
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
